--- a/UT.Vol.BLL/HelperFiles/VolAddress.xlsx
+++ b/UT.Vol.BLL/HelperFiles/VolAddress.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Table</t>
   </si>
@@ -177,37 +176,55 @@
   </si>
   <si>
     <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('10','109 State St.','','','Montpelier','VT','56409','','0')</t>
+  </si>
+  <si>
+    <t>dba53101-f9b2-4dc0-85e7-11d472fd99cd</t>
+  </si>
+  <si>
+    <t>589178b4-aa4c-4276-a516-9460fa7714d3</t>
+  </si>
+  <si>
+    <t>293fe520-7e35-444a-8955-f02a911fed1c</t>
+  </si>
+  <si>
+    <t>34fb4310-9790-4b80-84cc-8c899f0308f7</t>
+  </si>
+  <si>
+    <t>6bd2cd4d-e58c-4c9f-8195-8c4f0ae9af1d</t>
+  </si>
+  <si>
+    <t>63aaaec0-0222-4cc6-b748-668f8675fb40</t>
+  </si>
+  <si>
+    <t>55f42ce3-4b5d-44ad-bb75-a0719ac5bab3</t>
+  </si>
+  <si>
+    <t>7bf6418f-51af-4e9b-a8ec-fbd13590cde9</t>
+  </si>
+  <si>
+    <t>46e0eab8-9d77-4a4d-a642-bed325a80ba2</t>
+  </si>
+  <si>
+    <t>ec311095-16c4-4ea1-a9bc-9ddcda3b9b62</t>
+  </si>
+  <si>
+    <t>VolID</t>
+  </si>
+  <si>
+    <t>PrimaryAddr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,7 +243,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -234,447 +251,763 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.28571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.29081632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="164.285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="29.7109375"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="164.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2">
         <v>85007</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2">
         <v>19801</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2">
         <v>83720</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2">
         <v>40601</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2">
         <v>55155</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2">
         <v>89701</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2">
         <v>27603</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2">
         <v>58505</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2">
         <v>17120</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="I11" s="2">
         <v>56409</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/UT.Vol.BLL/HelperFiles/VolAddress.xlsx
+++ b/UT.Vol.BLL/HelperFiles/VolAddress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -67,9 +67,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('1','1700 W. Washington','','','Phoenix','AZ','85007','','1')</t>
-  </si>
-  <si>
     <t>820 N. French St.</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('2','820 N. French St.','','','Wilmington','DE','19801','','0')</t>
-  </si>
-  <si>
     <t>700 W. Jefferson</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('3','700 W. Jefferson','','','Boise','ID','83720','','1')</t>
-  </si>
-  <si>
     <t>700 Capitol Ave.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>KY</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('4','700 Capitol Ave.','','','Frankfurt','KY','40601','','1')</t>
-  </si>
-  <si>
     <t>75 Constitution Ave.</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>MN</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('5','75 Constitution Ave.','','','St. Paul','MN','55155','','0')</t>
-  </si>
-  <si>
     <t>101 N. Carson Street</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>NV</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('6','101 N. Carson Street','','','Carson City','NV','89701','','1')</t>
-  </si>
-  <si>
     <t>116 West Jones St.</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('7','116 West Jones St.','','','Raleigh','NC','27603','','0')</t>
-  </si>
-  <si>
     <t>600 E. Boulevard Avenue</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
     <t>ND</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('8','600 E. Boulevard Avenue','','','Bismark','ND','58505','','0')</t>
-  </si>
-  <si>
     <t>225 Main Capitol</t>
   </si>
   <si>
@@ -163,9 +139,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('9','225 Main Capitol','','','Harrisburg','PA','17120','','0')</t>
-  </si>
-  <si>
     <t>109 State St.</t>
   </si>
   <si>
@@ -175,9 +148,6 @@
     <t>VT</t>
   </si>
   <si>
-    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('10','109 State St.','','','Montpelier','VT','56409','','0')</t>
-  </si>
-  <si>
     <t>dba53101-f9b2-4dc0-85e7-11d472fd99cd</t>
   </si>
   <si>
@@ -212,13 +182,43 @@
   </si>
   <si>
     <t>PrimaryAddr</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('1','1700 W. Washington','','','Phoenix','AZ','85007', NULL,'1')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('2','820 N. French St.','','','Wilmington','DE','19801', NULL,'0')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('3','700 W. Jefferson','','','Boise','ID','83720',NULL,'1')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('4','700 Capitol Ave.','','','Frankfurt','KY','40601',NULL,'1')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('5','75 Constitution Ave.','','','St. Paul','MN','55155',NULL,'0')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('6','101 N. Carson Street','','','Carson City','NV','89701',NULL,'1')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('7','116 West Jones St.','','','Raleigh','NC','27603',NULL,'0')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('8','600 E. Boulevard Avenue','','','Bismark','ND','58505',NULL,'0')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('9','225 Main Capitol','','','Harrisburg','PA','17120',NULL,'0')</t>
+  </si>
+  <si>
+    <t>INSERT INTO [VolTeer].[Vol].[tblVolAddress] (AddrID,AddrLine1,AddrLine2,AddrLine3,City,St,Zip,Zip4,ActiveFlg) VALUES('10','109 State St.','','','Montpelier','VT','56409',NULL,'0')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -351,7 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -386,7 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
@@ -589,12 +587,12 @@
     <col min="16" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -624,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -636,12 +634,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -669,30 +667,30 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>17</v>
+      <c r="O2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="2">
         <v>19801</v>
@@ -706,30 +704,30 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
+      <c r="O3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2">
         <v>83720</v>
@@ -743,30 +741,30 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
+      <c r="O4" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>40601</v>
@@ -780,30 +778,30 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>29</v>
+      <c r="O5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2">
         <v>55155</v>
@@ -817,30 +815,30 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
+      <c r="O6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2">
         <v>89701</v>
@@ -854,30 +852,30 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>37</v>
+      <c r="O7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
         <v>27603</v>
@@ -891,30 +889,30 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>41</v>
+      <c r="O8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2">
         <v>58505</v>
@@ -928,30 +926,30 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>45</v>
+      <c r="O9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
         <v>17120</v>
@@ -965,30 +963,30 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>49</v>
+      <c r="O10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>56409</v>
@@ -1002,8 +1000,8 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>53</v>
+      <c r="O11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
